--- a/data/trans_media/Q20C-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q20C-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 13,63</t>
+          <t>5,03; 13,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 9,69</t>
+          <t>3,63; 9,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,31</t>
+          <t>0,79; 5,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 16,7</t>
+          <t>2,53; 16,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 28,17</t>
+          <t>3,35; 25,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,66</t>
+          <t>2,85; 8,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,3</t>
+          <t>2,47; 6,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,0</t>
+          <t>2,13; 5,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,96</t>
+          <t>2,61; 6,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,78</t>
+          <t>3,15; 9,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 17,01</t>
+          <t>3,57; 16,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,0</t>
+          <t>0,8; 4,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,36</t>
+          <t>2,0; 4,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 18,53</t>
+          <t>3,47; 18,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,08</t>
+          <t>2,0; 4,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 15,62</t>
+          <t>3,74; 16,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,17</t>
+          <t>3,24; 7,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,69</t>
+          <t>4,41; 9,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,16</t>
+          <t>0,96; 5,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 9,09</t>
+          <t>2,97; 8,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 10,65</t>
+          <t>2,93; 10,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,16</t>
+          <t>0,96; 5,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,2</t>
+          <t>3,63; 7,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,82</t>
+          <t>3,78; 8,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,35</t>
+          <t>2,04; 8,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 15,23</t>
+          <t>1,55; 15,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,55</t>
+          <t>2,39; 6,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,4</t>
+          <t>2,61; 6,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 13,84</t>
+          <t>3,0; 14,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,33</t>
+          <t>2,01; 5,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,03</t>
+          <t>1,44; 5,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,94</t>
+          <t>2,13; 8,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,07</t>
+          <t>1,52; 5,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 11,74</t>
+          <t>2,08; 11,59</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 13,03</t>
+          <t>1,17; 13,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,59</t>
+          <t>1,99; 4,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,41; 24,1</t>
+          <t>7,16; 22,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 16,54</t>
+          <t>5,15; 17,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 55,12</t>
+          <t>4,9; 50,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,83</t>
+          <t>2,74; 6,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 11,28</t>
+          <t>4,88; 11,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,72</t>
+          <t>4,36; 8,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,2; 13,54</t>
+          <t>5,17; 13,74</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,62</t>
+          <t>5,71; 11,69</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,8; 24,81</t>
+          <t>5,64; 24,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,42; 11,87</t>
+          <t>1,56; 13,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,51; 12,31</t>
+          <t>3,68; 12,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 14,96</t>
+          <t>3,75; 14,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,46; 11,51</t>
+          <t>4,48; 12,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,36; 15,98</t>
+          <t>4,54; 16,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,91; 11,74</t>
+          <t>3,63; 11,47</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,18; 10,16</t>
+          <t>4,43; 10,44</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,41</t>
+          <t>4,66; 11,24</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,46</t>
+          <t>4,86; 11,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,74</t>
+          <t>4,16; 7,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,59; 14,95</t>
+          <t>5,65; 14,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,89</t>
+          <t>3,37; 6,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,42; 6,89</t>
+          <t>4,36; 7,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,25</t>
+          <t>4,92; 8,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,94</t>
+          <t>4,33; 7,67</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,71</t>
+          <t>4,56; 6,63</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,23</t>
+          <t>5,65; 9,5</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
